--- a/fechamento_2021/fechamento_marco/PositivoEsusTeste1.xlsx
+++ b/fechamento_2021/fechamento_marco/PositivoEsusTeste1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\Uipath\rpa_esus_edge\fechamento_2021\fechamento_marco\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F39A49E-D16F-4D7A-A26F-F6DAA66E2AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14355" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -12,14 +18,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$BI$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$BI$85</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="211">
   <si>
     <t>Dor de Cabeca</t>
   </si>
@@ -301,12 +307,363 @@
   </si>
   <si>
     <t>ALINE BERTIPAGLIA PAILINO</t>
+  </si>
+  <si>
+    <t>Não Reagente</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>MARCIA MOREIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>CLAUDIO ALVES ALMEIDA</t>
+  </si>
+  <si>
+    <t>GLORIA BARRANCO HERRERA</t>
+  </si>
+  <si>
+    <t>DANIEL ARISTIDES ASSIS ALMEIDA</t>
+  </si>
+  <si>
+    <t>RIVA FASION</t>
+  </si>
+  <si>
+    <t>Tosse, Dor de Garganta, Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>RUBENBERGSON PEDROSA</t>
+  </si>
+  <si>
+    <t>LARCIA RIBEIRO</t>
+  </si>
+  <si>
+    <t>Dor de Garganta, Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>ELICANDRA MENDES COIMBRA</t>
+  </si>
+  <si>
+    <t>Tosse, Febre, Dor de Cabeca, Coriza, Disturbios Olfativos</t>
+  </si>
+  <si>
+    <t>JOSE HUMBERTO CARVALHO DA SILVA</t>
+  </si>
+  <si>
+    <t>RONALDO NARCISO</t>
+  </si>
+  <si>
+    <t>Tosse, Febre, Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>APARECIDA DE PAULA SILVA</t>
+  </si>
+  <si>
+    <t>Tosse, Disturbios Gustativos</t>
+  </si>
+  <si>
+    <t>CLARICE DA SILVA NUNES</t>
+  </si>
+  <si>
+    <t>Febre, Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>KELLY CRISTINA MINCHUEL GOMES</t>
+  </si>
+  <si>
+    <t>Tosse, Dor de Cabeca, Coriza, Disturbios Gustativos</t>
+  </si>
+  <si>
+    <t>GABRIEL TADEU BOCCIA</t>
+  </si>
+  <si>
+    <t>Dor de Garganta, Dispneia, Febre, Tosse</t>
+  </si>
+  <si>
+    <t>RAFAELLA DAFNNE GREGORIO DE ASCENCAO</t>
+  </si>
+  <si>
+    <t>Dor de Garganta, Tosse, Dor de Cabeca, Disturbios Gustativos, Disturbios Olfativos</t>
+  </si>
+  <si>
+    <t>BERENICE IENCIUS</t>
+  </si>
+  <si>
+    <t>LUIS PALOTTA</t>
+  </si>
+  <si>
+    <t>Coriza</t>
+  </si>
+  <si>
+    <t>THAIS ALMEIDA GOMES</t>
+  </si>
+  <si>
+    <t>MICHELE DE CASTRO</t>
+  </si>
+  <si>
+    <t>Dor de Garganta, Coriza</t>
+  </si>
+  <si>
+    <t>PAULO AFONSO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Dor de Garganta</t>
+  </si>
+  <si>
+    <t>ANDERSON VICENTE DA SILVA</t>
+  </si>
+  <si>
+    <t>ISABELLY DE JESUS LIMA LOCATELLI</t>
+  </si>
+  <si>
+    <t>PAMELA MASCARENHAS</t>
+  </si>
+  <si>
+    <t>MARCUS VINICIUS DE MORAES</t>
+  </si>
+  <si>
+    <t>RAFAEL SILVA VILLAR DE SOUSA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Outros</t>
+  </si>
+  <si>
+    <t>MATHEUS MICHUEL BENTO</t>
+  </si>
+  <si>
+    <t>RAIMUNDO MACIEL RODRIGUES</t>
+  </si>
+  <si>
+    <t>Disturbios Gustativos, Disturbios Olfativos, Dor de Cabeca, Outros</t>
+  </si>
+  <si>
+    <t>MARIA AMELIA RETONDINO MARTINS</t>
+  </si>
+  <si>
+    <t>Febre, Tosse, Dor de Cabeca, Coriza</t>
+  </si>
+  <si>
+    <t>VAGNER TER</t>
+  </si>
+  <si>
+    <t>THIERRY PEREIRA</t>
+  </si>
+  <si>
+    <t>MARIA SOARES DE SOUZA</t>
+  </si>
+  <si>
+    <t>Tosse, Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>LAURA ALVES DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>Dispneia, Dor de Cabeca, Outros</t>
+  </si>
+  <si>
+    <t>MURILO DOURADO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>Dor de Garganta, Febre, Tosse, Coriza</t>
+  </si>
+  <si>
+    <t>MASUKO YOKOMIZO</t>
+  </si>
+  <si>
+    <t>Tosse, Febre</t>
+  </si>
+  <si>
+    <t>WILSON AMARO DA SILVA</t>
+  </si>
+  <si>
+    <t>AUGUSTO SAMPAIO DA SILVA</t>
+  </si>
+  <si>
+    <t>DAIANE OLIVEIRA LEAO DE SANTANA</t>
+  </si>
+  <si>
+    <t>Dispneia, Disturbios Gustativos, Disturbios Olfativos</t>
+  </si>
+  <si>
+    <t>SIDNEI FERRAZ BATAGINI</t>
+  </si>
+  <si>
+    <t>SIMONE DA SILVA</t>
+  </si>
+  <si>
+    <t>Febre, Tosse, Disturbios Gustativos</t>
+  </si>
+  <si>
+    <t>JOSE ROBERTO RIBEIRO OZORIO</t>
+  </si>
+  <si>
+    <t>MATILDE VIEIRA DO CARMO</t>
+  </si>
+  <si>
+    <t>FRANCIMAR SARAIVA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Febre, Dispneia, Tosse, Dor de Cabeca, Coriza</t>
+  </si>
+  <si>
+    <t>THAIS BRUNA OLIVEIRA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Disturbios Gustativos, Disturbios Olfativos</t>
+  </si>
+  <si>
+    <t>ALUI BONTEMPO FIGUEIREDO</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Febre, Disturbios Gustativos, Disturbios Olfativos</t>
+  </si>
+  <si>
+    <t>JAQUELINE GOMES DE ABREU</t>
+  </si>
+  <si>
+    <t>Tosse, Disturbios Gustativos, Disturbios Olfativos</t>
+  </si>
+  <si>
+    <t>IRACILIA LURDES DA SILVA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Dispneia</t>
+  </si>
+  <si>
+    <t>SILVIA MARIA CAVALINI</t>
+  </si>
+  <si>
+    <t>CRISTIANE DA SILVA BATISTA</t>
+  </si>
+  <si>
+    <t>Dispneia, Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>ROSANA LOPES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Febre, Tosse, Disturbios Olfativos, Disturbios Gustativos</t>
+  </si>
+  <si>
+    <t>VALDIRENE DE OLIVEIRA PONTES</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Dispneia, Febre, Tosse, Disturbios Gustativos, Outros</t>
+  </si>
+  <si>
+    <t>JULLY ANNA EVANGELISTA ANTONIO</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Febre, Tosse, Disturbios Gustativos, Outros</t>
+  </si>
+  <si>
+    <t>MICHELLE TEIXEIRA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Coriza</t>
+  </si>
+  <si>
+    <t>GIVALDO RODRIGUES DE BRITO</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Febre</t>
+  </si>
+  <si>
+    <t>DANIEL RODRIGO DE OLIVEIRA ALMEIDA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Dispneia, Outros</t>
+  </si>
+  <si>
+    <t>BRUNA NUNES CAMPOS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>DAMIANA GOMES DE SOUZA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Febre, Dispneia</t>
+  </si>
+  <si>
+    <t>ROMULO CAMARGO FERNANDES</t>
+  </si>
+  <si>
+    <t>SUELEN RAYANE HOTES</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Dispneia, Febre, Tosse, Disturbios Olfativos, Disturbios Gustativos</t>
+  </si>
+  <si>
+    <t>DARIO VIEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>ELAINE DA S FRANCA</t>
+  </si>
+  <si>
+    <t>MARIA APARECIDA FERREIRA DE MELO</t>
+  </si>
+  <si>
+    <t>Febre, Tosse, Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>FRANCISCA NAZARE SILVA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>Febre, Tosse, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>AMANDA DE SOUZA ALVES</t>
+  </si>
+  <si>
+    <t>Febre, Tosse, Dispneia, Dor de Cabeca, Disturbios Gustativos, Disturbios Olfativos, Ou</t>
+  </si>
+  <si>
+    <t>FELIPE GONSALES VIEIRA</t>
+  </si>
+  <si>
+    <t>Febre, Tosse, Outros</t>
+  </si>
+  <si>
+    <t>ED CARLOS REBOUCAS DE SOUSA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Febre, Tosse, Outros</t>
+  </si>
+  <si>
+    <t>ZENAIDE ALVES DE LUNA CASTRO</t>
+  </si>
+  <si>
+    <t>MANOEL MARQUES DA FRANCA</t>
+  </si>
+  <si>
+    <t>RODRIGO DA SILVA MOTA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Febre, Outros</t>
+  </si>
+  <si>
+    <t>FRANCISCO DE ASSIS GOMES LOPES</t>
+  </si>
+  <si>
+    <t>FELIPE AUGUSTO AMORIN DA SILVA</t>
+  </si>
+  <si>
+    <t>HELIO BURZARCA LOPES</t>
+  </si>
+  <si>
+    <t>Disturbios Gustativos, Disturbios Olfativos, Tosse, Coriza</t>
+  </si>
+  <si>
+    <t>AIANE HENRIQUES DANTAS</t>
+  </si>
+  <si>
+    <t>HELIANA PATRICIA LEANDRO DA SILVA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,6 +723,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -373,7 +733,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -411,9 +771,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,9 +806,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,9 +858,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -656,11 +1050,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BI85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BD1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BE93" sqref="BE93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,14 +2032,4778 @@
         <v>7</v>
       </c>
     </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>352171986675</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44271</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="2">
+        <v>28433</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44268</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="P13" s="4"/>
+      <c r="S13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2">
+        <v>44271</v>
+      </c>
+      <c r="U13" t="s">
+        <v>94</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2">
+        <v>44271</v>
+      </c>
+      <c r="X13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AL13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY13" s="4"/>
+      <c r="BD13" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF13" s="2">
+        <v>44293</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>352172117512</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44272</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20030</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44250</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="P14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AE14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH14" s="4"/>
+      <c r="AL14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="BD14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF14" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>352172131825</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44272</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="2">
+        <v>25461</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44272</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="P15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AE15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH15" s="4"/>
+      <c r="AL15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="BD15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF15" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>352172361520</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="2">
+        <v>31786</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44265</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="P16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AE16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>44268</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH16" s="4"/>
+      <c r="AL16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>44268</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="BD16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF16" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>352172400081</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="2">
+        <v>25998</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44259</v>
+      </c>
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="P17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AE17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH17" s="4"/>
+      <c r="AL17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="BD17" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF17" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>352172460975</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="2">
+        <v>34110</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44273</v>
+      </c>
+      <c r="F18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="P18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AE18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH18" s="4"/>
+      <c r="AL18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="BD18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF18" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>352172500348</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44273</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44263</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="P19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AE19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH19" s="4"/>
+      <c r="AL19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="BD19" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF19" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>352172518919</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44274</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="2">
+        <v>29209</v>
+      </c>
+      <c r="E20" s="2">
+        <v>44265</v>
+      </c>
+      <c r="F20" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="P20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AE20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>44268</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH20" s="4"/>
+      <c r="AL20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN20" s="2">
+        <v>44268</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="BD20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF20" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>352172812418</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="2">
+        <v>31839</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44274</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="P21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AE21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>44274</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH21" s="4"/>
+      <c r="AL21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN21" s="2">
+        <v>44274</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS21" s="4"/>
+      <c r="AY21" s="4"/>
+      <c r="BD21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF21" s="2">
+        <v>44322</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>352171893421</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44271</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="2">
+        <v>26625</v>
+      </c>
+      <c r="E22" s="2">
+        <v>44267</v>
+      </c>
+      <c r="F22" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="P22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AH22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN22" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="BD22" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF22" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>352171937024</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44271</v>
+      </c>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="2">
+        <v>19696</v>
+      </c>
+      <c r="E23" s="2">
+        <v>44266</v>
+      </c>
+      <c r="F23" t="s">
+        <v>111</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="P23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AH23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN23" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="BD23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF23" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>352171941260</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44271</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="2">
+        <v>28811</v>
+      </c>
+      <c r="E24" s="2">
+        <v>44240</v>
+      </c>
+      <c r="F24" t="s">
+        <v>113</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="P24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AH24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN24" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS24" s="4"/>
+      <c r="AY24" s="4"/>
+      <c r="BD24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF24" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>352171942435</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44271</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="2">
+        <v>30939</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44265</v>
+      </c>
+      <c r="F25" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="P25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AH25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN25" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS25" s="4"/>
+      <c r="AY25" s="4"/>
+      <c r="BD25" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF25" s="2">
+        <v>44334</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>352171951150</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44271</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="2">
+        <v>32695</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44260</v>
+      </c>
+      <c r="F26" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="P26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AH26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>44264</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN26" s="2">
+        <v>44264</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS26" s="4"/>
+      <c r="AY26" s="4"/>
+      <c r="BD26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF26" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>352171989999</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44271</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="2">
+        <v>33522</v>
+      </c>
+      <c r="E27" s="2">
+        <v>44266</v>
+      </c>
+      <c r="F27" t="s">
+        <v>119</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="P27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AH27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN27" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS27" s="4"/>
+      <c r="AY27" s="4"/>
+      <c r="BD27" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF27" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>352171990927</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44271</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="2">
+        <v>23261</v>
+      </c>
+      <c r="E28" s="2">
+        <v>44269</v>
+      </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="P28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AH28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN28" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS28" s="4"/>
+      <c r="AY28" s="4"/>
+      <c r="BD28" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF28" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>352171991759</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44271</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="2">
+        <v>22101</v>
+      </c>
+      <c r="E29" s="2">
+        <v>44266</v>
+      </c>
+      <c r="F29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="P29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AH29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS29" s="4"/>
+      <c r="AY29" s="4"/>
+      <c r="BD29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF29" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>352171996493</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44271</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="2">
+        <v>36120</v>
+      </c>
+      <c r="E30" s="2">
+        <v>44266</v>
+      </c>
+      <c r="F30" t="s">
+        <v>101</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="P30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AH30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN30" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS30" s="4"/>
+      <c r="AY30" s="4"/>
+      <c r="BD30" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF30" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>352171996592</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44271</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="2">
+        <v>30356</v>
+      </c>
+      <c r="E31" s="2">
+        <v>44269</v>
+      </c>
+      <c r="F31" t="s">
+        <v>125</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="P31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AH31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS31" s="4"/>
+      <c r="AY31" s="4"/>
+      <c r="BD31" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF31" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>352172064516</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44272</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="2">
+        <v>25133</v>
+      </c>
+      <c r="E32" s="2">
+        <v>44265</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="P32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AH32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS32" s="4"/>
+      <c r="AY32" s="4"/>
+      <c r="BD32" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF32" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>352172077428</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44272</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="2">
+        <v>30559</v>
+      </c>
+      <c r="E33" s="2">
+        <v>44264</v>
+      </c>
+      <c r="F33" t="s">
+        <v>127</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="P33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AH33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN33" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS33" s="4"/>
+      <c r="AY33" s="4"/>
+      <c r="BD33" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF33" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>352172079296</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44272</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="2">
+        <v>38033</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44264</v>
+      </c>
+      <c r="F34" t="s">
+        <v>127</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="P34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AH34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS34" s="4"/>
+      <c r="AY34" s="4"/>
+      <c r="BD34" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF34" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>352172094230</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44272</v>
+      </c>
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="2">
+        <v>30159</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44265</v>
+      </c>
+      <c r="F35" t="s">
+        <v>127</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="P35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AH35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS35" s="4"/>
+      <c r="AY35" s="4"/>
+      <c r="BD35" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF35" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>352172288475</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44270</v>
+      </c>
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="2">
+        <v>36367</v>
+      </c>
+      <c r="E36" s="2">
+        <v>44269</v>
+      </c>
+      <c r="F36" t="s">
+        <v>76</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="P36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AH36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS36" s="4"/>
+      <c r="AY36" s="4"/>
+      <c r="BD36" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF36" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>352172309822</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="2">
+        <v>32731</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44269</v>
+      </c>
+      <c r="F37" t="s">
+        <v>133</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="P37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AH37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="2">
+        <v>44269</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>44269</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS37" s="4"/>
+      <c r="AY37" s="4"/>
+      <c r="BD37" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF37" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>352172311732</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="2">
+        <v>42782</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44272</v>
+      </c>
+      <c r="F38" t="s">
+        <v>72</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="P38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AH38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS38" s="4"/>
+      <c r="AY38" s="4"/>
+      <c r="BD38" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF38" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>352172319768</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="2">
+        <v>23516</v>
+      </c>
+      <c r="E39" s="2">
+        <v>44266</v>
+      </c>
+      <c r="F39" t="s">
+        <v>136</v>
+      </c>
+      <c r="L39" s="3"/>
+      <c r="P39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AH39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS39" s="4"/>
+      <c r="AY39" s="4"/>
+      <c r="BD39" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF39" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>352172338238</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="2">
+        <v>19220</v>
+      </c>
+      <c r="E40" s="2">
+        <v>44270</v>
+      </c>
+      <c r="F40" t="s">
+        <v>138</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="P40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AH40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS40" s="4"/>
+      <c r="AY40" s="4"/>
+      <c r="BD40" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF40" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH40" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>352172426159</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="2">
+        <v>23073</v>
+      </c>
+      <c r="E41" s="2">
+        <v>44273</v>
+      </c>
+      <c r="F41" t="s">
+        <v>72</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="P41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AH41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN41" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS41" s="4"/>
+      <c r="AY41" s="4"/>
+      <c r="BD41" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF41" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>352172429956</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="2">
+        <v>36410</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44249</v>
+      </c>
+      <c r="F42" t="s">
+        <v>72</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="P42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AH42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="2">
+        <v>44258</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN42" s="2">
+        <v>44258</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS42" s="4"/>
+      <c r="AY42" s="4"/>
+      <c r="BD42" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF42" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>352172430764</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="2">
+        <v>22385</v>
+      </c>
+      <c r="E43" s="2">
+        <v>44267</v>
+      </c>
+      <c r="F43" t="s">
+        <v>142</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="P43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AH43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN43" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS43" s="4"/>
+      <c r="AY43" s="4"/>
+      <c r="BD43" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF43" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH43" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>352172444952</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C44" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="2">
+        <v>24607</v>
+      </c>
+      <c r="E44" s="2">
+        <v>44266</v>
+      </c>
+      <c r="F44" t="s">
+        <v>144</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="P44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AH44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI44" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN44" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS44" s="4"/>
+      <c r="AY44" s="4"/>
+      <c r="BD44" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE44" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF44" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>352172466725</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="2">
+        <v>43149</v>
+      </c>
+      <c r="E45" s="2">
+        <v>44270</v>
+      </c>
+      <c r="F45" t="s">
+        <v>146</v>
+      </c>
+      <c r="L45" s="3"/>
+      <c r="P45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AH45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI45" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN45" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS45" s="4"/>
+      <c r="AY45" s="4"/>
+      <c r="BD45" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE45" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF45" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH45" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>352172470158</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="2">
+        <v>12011</v>
+      </c>
+      <c r="E46" s="2">
+        <v>44270</v>
+      </c>
+      <c r="F46" t="s">
+        <v>148</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="P46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AH46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI46" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN46" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS46" s="4"/>
+      <c r="AY46" s="4"/>
+      <c r="BD46" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF46" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH46" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>352172516810</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44266</v>
+      </c>
+      <c r="C47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="2">
+        <v>30041</v>
+      </c>
+      <c r="E47" s="2">
+        <v>44263</v>
+      </c>
+      <c r="F47" t="s">
+        <v>133</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="P47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AH47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI47" s="2">
+        <v>44266</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN47" s="2">
+        <v>44266</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS47" s="4"/>
+      <c r="AY47" s="4"/>
+      <c r="BD47" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE47" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF47" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH47" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>352172517151</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44266</v>
+      </c>
+      <c r="C48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="2">
+        <v>16745</v>
+      </c>
+      <c r="E48" s="2">
+        <v>44264</v>
+      </c>
+      <c r="F48" t="s">
+        <v>95</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="P48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AH48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI48" s="2">
+        <v>44266</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN48" s="2">
+        <v>44266</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS48" s="4"/>
+      <c r="AY48" s="4"/>
+      <c r="BD48" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF48" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH48" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>352172522084</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44274</v>
+      </c>
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="2">
+        <v>31481</v>
+      </c>
+      <c r="E49" s="2">
+        <v>44264</v>
+      </c>
+      <c r="F49" t="s">
+        <v>152</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="P49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AH49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI49" s="2">
+        <v>44266</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN49" s="2">
+        <v>44266</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS49" s="4"/>
+      <c r="AY49" s="4"/>
+      <c r="BD49" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE49" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF49" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH49" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>352172525441</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44274</v>
+      </c>
+      <c r="C50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="2">
+        <v>26934</v>
+      </c>
+      <c r="E50" s="2">
+        <v>44264</v>
+      </c>
+      <c r="F50" t="s">
+        <v>72</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="P50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="AB50" s="4"/>
+      <c r="AE50" s="4"/>
+      <c r="AH50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI50" s="2">
+        <v>44266</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN50" s="2">
+        <v>44266</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS50" s="4"/>
+      <c r="AY50" s="4"/>
+      <c r="BD50" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE50" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF50" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH50" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>352172526002</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44274</v>
+      </c>
+      <c r="C51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="2">
+        <v>37510</v>
+      </c>
+      <c r="E51" s="2">
+        <v>44263</v>
+      </c>
+      <c r="F51" t="s">
+        <v>155</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="P51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AH51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI51" s="2">
+        <v>44266</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN51" s="2">
+        <v>44266</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS51" s="4"/>
+      <c r="AY51" s="4"/>
+      <c r="BD51" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF51" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH51" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>352172550034</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44274</v>
+      </c>
+      <c r="C52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="2">
+        <v>24941</v>
+      </c>
+      <c r="E52" s="2">
+        <v>44274</v>
+      </c>
+      <c r="F52" t="s">
+        <v>72</v>
+      </c>
+      <c r="L52" s="3"/>
+      <c r="P52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AH52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI52" s="2">
+        <v>44274</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN52" s="2">
+        <v>44274</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS52" s="4"/>
+      <c r="AY52" s="4"/>
+      <c r="BD52" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE52" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF52" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH52" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>352172559878</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44274</v>
+      </c>
+      <c r="C53" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="2">
+        <v>24516</v>
+      </c>
+      <c r="E53" s="2">
+        <v>44258</v>
+      </c>
+      <c r="F53" t="s">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+      <c r="P53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AH53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI53" s="2">
+        <v>44265</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN53" s="2">
+        <v>44265</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS53" s="4"/>
+      <c r="AY53" s="4"/>
+      <c r="BD53" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF53" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH53" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>352172562804</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44274</v>
+      </c>
+      <c r="C54" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="2">
+        <v>25721</v>
+      </c>
+      <c r="E54" s="2">
+        <v>44269</v>
+      </c>
+      <c r="F54" t="s">
+        <v>159</v>
+      </c>
+      <c r="L54" s="3"/>
+      <c r="P54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="AB54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AH54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI54" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN54" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS54" s="4"/>
+      <c r="AY54" s="4"/>
+      <c r="BD54" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF54" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH54" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>352172639676</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44274</v>
+      </c>
+      <c r="C55" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="2">
+        <v>34036</v>
+      </c>
+      <c r="E55" s="2">
+        <v>44265</v>
+      </c>
+      <c r="F55" t="s">
+        <v>161</v>
+      </c>
+      <c r="L55" s="3"/>
+      <c r="P55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AH55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI55" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN55" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS55" s="4"/>
+      <c r="AY55" s="4"/>
+      <c r="BD55" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE55" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF55" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>352172640297</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44274</v>
+      </c>
+      <c r="C56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="2">
+        <v>31969</v>
+      </c>
+      <c r="E56" s="2">
+        <v>44265</v>
+      </c>
+      <c r="F56" t="s">
+        <v>163</v>
+      </c>
+      <c r="L56" s="3"/>
+      <c r="P56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AH56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI56" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN56" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS56" s="4"/>
+      <c r="AY56" s="4"/>
+      <c r="BD56" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE56" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF56" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH56" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>352172649052</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44274</v>
+      </c>
+      <c r="C57" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="2">
+        <v>36581</v>
+      </c>
+      <c r="E57" s="2">
+        <v>44259</v>
+      </c>
+      <c r="F57" t="s">
+        <v>165</v>
+      </c>
+      <c r="L57" s="3"/>
+      <c r="P57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AE57" s="4"/>
+      <c r="AH57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI57" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN57" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS57" s="4"/>
+      <c r="AY57" s="4"/>
+      <c r="BD57" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE57" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF57" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH57" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>352172687200</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44274</v>
+      </c>
+      <c r="C58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="2">
+        <v>22030</v>
+      </c>
+      <c r="E58" s="2">
+        <v>44260</v>
+      </c>
+      <c r="F58" t="s">
+        <v>167</v>
+      </c>
+      <c r="L58" s="3"/>
+      <c r="P58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AE58" s="4"/>
+      <c r="AH58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI58" s="2">
+        <v>44263</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN58" s="2">
+        <v>44263</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS58" s="4"/>
+      <c r="AY58" s="4"/>
+      <c r="BD58" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE58" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF58" s="2">
+        <v>44320</v>
+      </c>
+      <c r="BH58" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>352172725428</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44274</v>
+      </c>
+      <c r="C59" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="2">
+        <v>26416</v>
+      </c>
+      <c r="E59" s="2">
+        <v>44254</v>
+      </c>
+      <c r="F59" t="s">
+        <v>125</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="P59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="AB59" s="4"/>
+      <c r="AE59" s="4"/>
+      <c r="AH59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI59" s="2">
+        <v>44256</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN59" s="2">
+        <v>44256</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS59" s="4"/>
+      <c r="AY59" s="4"/>
+      <c r="BD59" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE59" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF59" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH59" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>352172731474</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44274</v>
+      </c>
+      <c r="C60" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="2">
+        <v>32081</v>
+      </c>
+      <c r="E60" s="2">
+        <v>44269</v>
+      </c>
+      <c r="F60" t="s">
+        <v>170</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="P60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="AB60" s="4"/>
+      <c r="AE60" s="4"/>
+      <c r="AH60" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI60" s="2">
+        <v>44274</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL60" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN60" s="2">
+        <v>44274</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS60" s="4"/>
+      <c r="AY60" s="4"/>
+      <c r="BD60" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE60" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF60" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH60" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>352172733233</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C61" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="2">
+        <v>24318</v>
+      </c>
+      <c r="E61" s="2">
+        <v>44270</v>
+      </c>
+      <c r="F61" t="s">
+        <v>172</v>
+      </c>
+      <c r="L61" s="3"/>
+      <c r="P61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="AB61" s="4"/>
+      <c r="AE61" s="4"/>
+      <c r="AH61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI61" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN61" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS61" s="4"/>
+      <c r="AY61" s="4"/>
+      <c r="BD61" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE61" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF61" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH61" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>352172734446</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C62" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" s="2">
+        <v>31401</v>
+      </c>
+      <c r="E62" s="2">
+        <v>44266</v>
+      </c>
+      <c r="F62" t="s">
+        <v>174</v>
+      </c>
+      <c r="L62" s="3"/>
+      <c r="P62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="AB62" s="4"/>
+      <c r="AE62" s="4"/>
+      <c r="AH62" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI62" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL62" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN62" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS62" s="4"/>
+      <c r="AY62" s="4"/>
+      <c r="BD62" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE62" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF62" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH62" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>352172734751</v>
+      </c>
+      <c r="B63" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C63" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63" s="2">
+        <v>34896</v>
+      </c>
+      <c r="E63" s="2">
+        <v>44272</v>
+      </c>
+      <c r="F63" t="s">
+        <v>176</v>
+      </c>
+      <c r="L63" s="3"/>
+      <c r="P63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="AB63" s="4"/>
+      <c r="AE63" s="4"/>
+      <c r="AH63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI63" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN63" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS63" s="4"/>
+      <c r="AY63" s="4"/>
+      <c r="BD63" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE63" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF63" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH63" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>352172734916</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C64" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" s="2">
+        <v>32331</v>
+      </c>
+      <c r="E64" s="2">
+        <v>44272</v>
+      </c>
+      <c r="F64" t="s">
+        <v>178</v>
+      </c>
+      <c r="L64" s="3"/>
+      <c r="P64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="AB64" s="4"/>
+      <c r="AE64" s="4"/>
+      <c r="AH64" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI64" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL64" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN64" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS64" s="4"/>
+      <c r="AY64" s="4"/>
+      <c r="BD64" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE64" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF64" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH64" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>352172758473</v>
+      </c>
+      <c r="B65" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C65" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" s="2">
+        <v>29389</v>
+      </c>
+      <c r="E65" s="2">
+        <v>44269</v>
+      </c>
+      <c r="F65" t="s">
+        <v>180</v>
+      </c>
+      <c r="L65" s="3"/>
+      <c r="P65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="AB65" s="4"/>
+      <c r="AE65" s="4"/>
+      <c r="AH65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI65" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN65" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS65" s="4"/>
+      <c r="AY65" s="4"/>
+      <c r="BD65" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE65" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF65" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH65" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>352172762842</v>
+      </c>
+      <c r="B66" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C66" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="2">
+        <v>31391</v>
+      </c>
+      <c r="E66" s="2">
+        <v>44268</v>
+      </c>
+      <c r="F66" t="s">
+        <v>182</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="P66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="AB66" s="4"/>
+      <c r="AE66" s="4"/>
+      <c r="AH66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI66" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN66" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS66" s="4"/>
+      <c r="AY66" s="4"/>
+      <c r="BD66" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE66" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF66" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH66" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>352172765026</v>
+      </c>
+      <c r="B67" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C67" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="2">
+        <v>33011</v>
+      </c>
+      <c r="E67" s="2">
+        <v>44268</v>
+      </c>
+      <c r="F67" t="s">
+        <v>182</v>
+      </c>
+      <c r="L67" s="3"/>
+      <c r="P67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="AB67" s="4"/>
+      <c r="AE67" s="4"/>
+      <c r="AH67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN67" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AO67" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS67" s="4"/>
+      <c r="AY67" s="4"/>
+      <c r="BD67" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE67" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF67" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH67" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>352172765689</v>
+      </c>
+      <c r="B68" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C68" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="2">
+        <v>23732</v>
+      </c>
+      <c r="E68" s="2">
+        <v>44267</v>
+      </c>
+      <c r="F68" t="s">
+        <v>185</v>
+      </c>
+      <c r="L68" s="3"/>
+      <c r="P68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="AB68" s="4"/>
+      <c r="AE68" s="4"/>
+      <c r="AH68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN68" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AO68" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS68" s="4"/>
+      <c r="AY68" s="4"/>
+      <c r="BD68" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE68" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF68" s="2">
+        <v>44320</v>
+      </c>
+      <c r="BH68" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>352172767558</v>
+      </c>
+      <c r="B69" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C69" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="2">
+        <v>30779</v>
+      </c>
+      <c r="E69" s="2">
+        <v>44268</v>
+      </c>
+      <c r="F69" t="s">
+        <v>170</v>
+      </c>
+      <c r="L69" s="3"/>
+      <c r="P69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="AB69" s="4"/>
+      <c r="AE69" s="4"/>
+      <c r="AH69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN69" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AO69" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS69" s="4"/>
+      <c r="AY69" s="4"/>
+      <c r="BD69" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE69" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF69" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH69" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>352172774600</v>
+      </c>
+      <c r="B70" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C70" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="2">
+        <v>34110</v>
+      </c>
+      <c r="E70" s="2">
+        <v>44266</v>
+      </c>
+      <c r="F70" t="s">
+        <v>188</v>
+      </c>
+      <c r="L70" s="3"/>
+      <c r="P70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AH70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN70" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS70" s="4"/>
+      <c r="AY70" s="4"/>
+      <c r="BD70" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE70" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF70" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH70" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>352172787439</v>
+      </c>
+      <c r="B71" s="2">
+        <v>44268</v>
+      </c>
+      <c r="C71" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" s="2">
+        <v>31717</v>
+      </c>
+      <c r="E71" s="2">
+        <v>44263</v>
+      </c>
+      <c r="F71" t="s">
+        <v>180</v>
+      </c>
+      <c r="L71" s="3"/>
+      <c r="P71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="AB71" s="4"/>
+      <c r="AE71" s="4"/>
+      <c r="AH71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="2">
+        <v>44268</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN71" s="2">
+        <v>44268</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS71" s="4"/>
+      <c r="AY71" s="4"/>
+      <c r="BD71" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE71" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF71" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH71" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>352172790973</v>
+      </c>
+      <c r="B72" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D72" s="2">
+        <v>29255</v>
+      </c>
+      <c r="E72" s="2">
+        <v>44270</v>
+      </c>
+      <c r="F72" t="s">
+        <v>104</v>
+      </c>
+      <c r="L72" s="3"/>
+      <c r="P72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="AB72" s="4"/>
+      <c r="AE72" s="4"/>
+      <c r="AH72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI72" s="2">
+        <v>44275</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN72" s="2">
+        <v>44275</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS72" s="4"/>
+      <c r="AY72" s="4"/>
+      <c r="BD72" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE72" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF72" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH72" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>352172795275</v>
+      </c>
+      <c r="B73" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C73" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" s="2">
+        <v>22828</v>
+      </c>
+      <c r="E73" s="2">
+        <v>44268</v>
+      </c>
+      <c r="F73" t="s">
+        <v>192</v>
+      </c>
+      <c r="L73" s="3"/>
+      <c r="P73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="AB73" s="4"/>
+      <c r="AE73" s="4"/>
+      <c r="AH73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI73" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN73" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS73" s="4"/>
+      <c r="AY73" s="4"/>
+      <c r="BD73" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE73" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF73" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH73" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>352172795334</v>
+      </c>
+      <c r="B74" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C74" t="s">
+        <v>193</v>
+      </c>
+      <c r="D74" s="2">
+        <v>20909</v>
+      </c>
+      <c r="E74" s="2">
+        <v>44264</v>
+      </c>
+      <c r="F74" t="s">
+        <v>194</v>
+      </c>
+      <c r="L74" s="3"/>
+      <c r="P74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="AB74" s="4"/>
+      <c r="AE74" s="4"/>
+      <c r="AH74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI74" s="2">
+        <v>44268</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN74" s="2">
+        <v>44268</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS74" s="4"/>
+      <c r="AY74" s="4"/>
+      <c r="BD74" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE74" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF74" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH74" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>352172795645</v>
+      </c>
+      <c r="B75" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D75" s="2">
+        <v>35206</v>
+      </c>
+      <c r="E75" s="2">
+        <v>44262</v>
+      </c>
+      <c r="F75" t="s">
+        <v>196</v>
+      </c>
+      <c r="L75" s="3"/>
+      <c r="P75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="AB75" s="4"/>
+      <c r="AE75" s="4"/>
+      <c r="AH75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI75" s="2">
+        <v>44268</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN75" s="2">
+        <v>44268</v>
+      </c>
+      <c r="AO75" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS75" s="4"/>
+      <c r="AY75" s="4"/>
+      <c r="BD75" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE75" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF75" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH75" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>352172795963</v>
+      </c>
+      <c r="B76" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C76" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="2">
+        <v>34046</v>
+      </c>
+      <c r="E76" s="2">
+        <v>44270</v>
+      </c>
+      <c r="F76" t="s">
+        <v>198</v>
+      </c>
+      <c r="L76" s="3"/>
+      <c r="P76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AH76" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI76" s="2">
+        <v>44268</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL76" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN76" s="2">
+        <v>44268</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS76" s="4"/>
+      <c r="AY76" s="4"/>
+      <c r="BD76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE76" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF76" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH76" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>352172798487</v>
+      </c>
+      <c r="B77" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C77" t="s">
+        <v>199</v>
+      </c>
+      <c r="D77" s="2">
+        <v>28139</v>
+      </c>
+      <c r="E77" s="2">
+        <v>44262</v>
+      </c>
+      <c r="F77" t="s">
+        <v>200</v>
+      </c>
+      <c r="L77" s="3"/>
+      <c r="P77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AH77" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI77" s="2">
+        <v>44268</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL77" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN77" s="2">
+        <v>44268</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS77" s="4"/>
+      <c r="AY77" s="4"/>
+      <c r="BD77" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE77" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF77" s="2">
+        <v>44322</v>
+      </c>
+      <c r="BH77" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>352172801200</v>
+      </c>
+      <c r="B78" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C78" t="s">
+        <v>201</v>
+      </c>
+      <c r="D78" s="2">
+        <v>18229</v>
+      </c>
+      <c r="E78" s="2">
+        <v>44268</v>
+      </c>
+      <c r="F78" t="s">
+        <v>127</v>
+      </c>
+      <c r="L78" s="3"/>
+      <c r="P78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="AB78" s="4"/>
+      <c r="AE78" s="4"/>
+      <c r="AH78" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI78" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL78" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN78" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AO78" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS78" s="4"/>
+      <c r="AY78" s="4"/>
+      <c r="BD78" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE78" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF78" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH78" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>352172802777</v>
+      </c>
+      <c r="B79" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C79" t="s">
+        <v>202</v>
+      </c>
+      <c r="D79" s="2">
+        <v>23047</v>
+      </c>
+      <c r="E79" s="2">
+        <v>44269</v>
+      </c>
+      <c r="F79" t="s">
+        <v>198</v>
+      </c>
+      <c r="L79" s="3"/>
+      <c r="P79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="AB79" s="4"/>
+      <c r="AE79" s="4"/>
+      <c r="AH79" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI79" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AJ79" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL79" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN79" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AO79" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS79" s="4"/>
+      <c r="AY79" s="4"/>
+      <c r="BD79" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE79" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF79" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH79" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>352172803264</v>
+      </c>
+      <c r="B80" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C80" t="s">
+        <v>203</v>
+      </c>
+      <c r="D80" s="2">
+        <v>33649</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44266</v>
+      </c>
+      <c r="F80" t="s">
+        <v>204</v>
+      </c>
+      <c r="L80" s="3"/>
+      <c r="P80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="AB80" s="4"/>
+      <c r="AE80" s="4"/>
+      <c r="AH80" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI80" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AJ80" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL80" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN80" s="2">
+        <v>44271</v>
+      </c>
+      <c r="AO80" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS80" s="4"/>
+      <c r="AY80" s="4"/>
+      <c r="BD80" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE80" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF80" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH80" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>352172804866</v>
+      </c>
+      <c r="B81" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C81" t="s">
+        <v>205</v>
+      </c>
+      <c r="D81" s="2">
+        <v>23228</v>
+      </c>
+      <c r="E81" s="2">
+        <v>44267</v>
+      </c>
+      <c r="F81" t="s">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3"/>
+      <c r="P81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="AB81" s="4"/>
+      <c r="AE81" s="4"/>
+      <c r="AH81" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI81" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL81" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN81" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AO81" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS81" s="4"/>
+      <c r="AY81" s="4"/>
+      <c r="BD81" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE81" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF81" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH81" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>352172806565</v>
+      </c>
+      <c r="B82" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C82" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82" s="2">
+        <v>33164</v>
+      </c>
+      <c r="E82" s="2">
+        <v>44267</v>
+      </c>
+      <c r="F82" t="s">
+        <v>72</v>
+      </c>
+      <c r="L82" s="3"/>
+      <c r="P82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="AB82" s="4"/>
+      <c r="AE82" s="4"/>
+      <c r="AH82" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI82" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL82" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN82" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AO82" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS82" s="4"/>
+      <c r="AY82" s="4"/>
+      <c r="BD82" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE82" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF82" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH82" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>352172807576</v>
+      </c>
+      <c r="B83" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C83" t="s">
+        <v>207</v>
+      </c>
+      <c r="D83" s="2">
+        <v>25104</v>
+      </c>
+      <c r="E83" s="2">
+        <v>44270</v>
+      </c>
+      <c r="F83" t="s">
+        <v>208</v>
+      </c>
+      <c r="L83" s="3"/>
+      <c r="P83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="AB83" s="4"/>
+      <c r="AE83" s="4"/>
+      <c r="AH83" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI83" s="2">
+        <v>44275</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL83" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN83" s="2">
+        <v>44275</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS83" s="4"/>
+      <c r="AY83" s="4"/>
+      <c r="BD83" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE83" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF83" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH83" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>352172808132</v>
+      </c>
+      <c r="B84" s="2">
+        <v>44269</v>
+      </c>
+      <c r="C84" t="s">
+        <v>209</v>
+      </c>
+      <c r="D84" s="2">
+        <v>36795</v>
+      </c>
+      <c r="E84" s="2">
+        <v>44266</v>
+      </c>
+      <c r="F84" t="s">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+      <c r="P84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="AB84" s="4"/>
+      <c r="AE84" s="4"/>
+      <c r="AH84" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI84" s="2">
+        <v>44269</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL84" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN84" s="2">
+        <v>44269</v>
+      </c>
+      <c r="AO84" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS84" s="4"/>
+      <c r="AY84" s="4"/>
+      <c r="BD84" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE84" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF84" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH84" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>352172811762</v>
+      </c>
+      <c r="B85" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C85" t="s">
+        <v>210</v>
+      </c>
+      <c r="D85" s="2">
+        <v>31874</v>
+      </c>
+      <c r="E85" s="2">
+        <v>44270</v>
+      </c>
+      <c r="F85" t="s">
+        <v>170</v>
+      </c>
+      <c r="L85" s="3"/>
+      <c r="P85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="AB85" s="4"/>
+      <c r="AE85" s="4"/>
+      <c r="AH85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI85" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL85" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN85" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AO85" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS85" s="4"/>
+      <c r="AY85" s="4"/>
+      <c r="BD85" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE85" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF85" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH85" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI85" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:BI12"/>
+  <autoFilter ref="A1:BI85" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1657,7 +6815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/fechamento_2021/fechamento_marco/PositivoEsusTeste1.xlsx
+++ b/fechamento_2021/fechamento_marco/PositivoEsusTeste1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\Uipath\rpa_esus_edge\fechamento_2021\fechamento_marco\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F39A49E-D16F-4D7A-A26F-F6DAA66E2AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,14 +12,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$BI$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$BI$108</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="242">
   <si>
     <t>Dor de Cabeca</t>
   </si>
@@ -658,12 +652,105 @@
   </si>
   <si>
     <t>HELIANA PATRICIA LEANDRO DA SILVA</t>
+  </si>
+  <si>
+    <t>JOSE CARLOS DOS SANTOS</t>
+  </si>
+  <si>
+    <t>ANTONIO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>BRUNA PATRICIO D SAMPAIO</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>CICERO DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>Febre, Tosse</t>
+  </si>
+  <si>
+    <t>ELIZABETH RODRIGUES BARBOSA</t>
+  </si>
+  <si>
+    <t>ERICK MITCHELL SAGLIA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Febre, Tosse, Coriza, Dispneia, Disturbios Gustativos, Disturbios Olfativos</t>
+  </si>
+  <si>
+    <t>GABRIELA APARECIDA DA SILVA TONI</t>
+  </si>
+  <si>
+    <t>GUILIA SOSSAI REIS PARADA</t>
+  </si>
+  <si>
+    <t>GUSTAVO TONI DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>HEITOR PESSOA MAGNO</t>
+  </si>
+  <si>
+    <t>ILIDIA BARBOSA DE SALES</t>
+  </si>
+  <si>
+    <t>JAILSON LEMOS DE MELO</t>
+  </si>
+  <si>
+    <t>LEONARDO GOMES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Febre, Dor de Garganta, Dispneia</t>
+  </si>
+  <si>
+    <t>MANOEL XAVIER DE MORAIS</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>MICAELI LOPES DA SILVA</t>
+  </si>
+  <si>
+    <t>MURIEL KETHLLEN PEREIRA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse</t>
+  </si>
+  <si>
+    <t>RAPHAELLA SILVA MOREIRA</t>
+  </si>
+  <si>
+    <t>RENAN SILVA MOREIRA</t>
+  </si>
+  <si>
+    <t>RONY FELIX GOMES</t>
+  </si>
+  <si>
+    <t>SIRLENE ANTONIA MOREIRA</t>
+  </si>
+  <si>
+    <t>Dor de Garganta, Tosse</t>
+  </si>
+  <si>
+    <t>SUELI DE SOUSA SILVEIRA</t>
+  </si>
+  <si>
+    <t>Dispneia, Febre, Tosse</t>
+  </si>
+  <si>
+    <t>TEREZA GOMES DA SILVA</t>
+  </si>
+  <si>
+    <t>THAYLA BRUNETTI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -733,7 +820,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -771,9 +858,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -806,26 +893,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -858,26 +928,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1050,11 +1103,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BI108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BE93" sqref="BE93"/>
+      <selection activeCell="AZ1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6796,14 +6849,1509 @@
         <v>7</v>
       </c>
     </row>
+    <row r="86" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>352173483538</v>
+      </c>
+      <c r="B86" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C86" t="s">
+        <v>211</v>
+      </c>
+      <c r="D86" s="2">
+        <v>23527</v>
+      </c>
+      <c r="E86" s="2">
+        <v>44256</v>
+      </c>
+      <c r="F86" t="s">
+        <v>72</v>
+      </c>
+      <c r="L86" s="3"/>
+      <c r="P86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="AB86" s="4"/>
+      <c r="AE86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF86" s="2">
+        <v>44275</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH86" s="4"/>
+      <c r="AL86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM86" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN86" s="2">
+        <v>44275</v>
+      </c>
+      <c r="AO86" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS86" s="4"/>
+      <c r="AY86" s="4"/>
+      <c r="BD86" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE86" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF86" s="2">
+        <v>44322</v>
+      </c>
+      <c r="BH86" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>352172868544</v>
+      </c>
+      <c r="B87" s="2">
+        <v>44270</v>
+      </c>
+      <c r="C87" t="s">
+        <v>212</v>
+      </c>
+      <c r="D87" s="2">
+        <v>26292</v>
+      </c>
+      <c r="E87" s="2">
+        <v>44267</v>
+      </c>
+      <c r="F87" t="s">
+        <v>72</v>
+      </c>
+      <c r="L87" s="3"/>
+      <c r="P87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="AB87" s="4"/>
+      <c r="AE87" s="4"/>
+      <c r="AH87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI87" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM87" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN87" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AO87" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS87" s="4"/>
+      <c r="AY87" s="4"/>
+      <c r="BD87" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE87" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF87" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH87" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>352172868008</v>
+      </c>
+      <c r="B88" s="2">
+        <v>44276</v>
+      </c>
+      <c r="C88" t="s">
+        <v>213</v>
+      </c>
+      <c r="D88" s="2">
+        <v>23597</v>
+      </c>
+      <c r="E88" s="2">
+        <v>44266</v>
+      </c>
+      <c r="F88" t="s">
+        <v>214</v>
+      </c>
+      <c r="L88" s="3"/>
+      <c r="P88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="AB88" s="4"/>
+      <c r="AE88" s="4"/>
+      <c r="AH88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI88" s="2">
+        <v>44269</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM88" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN88" s="2">
+        <v>44269</v>
+      </c>
+      <c r="AO88" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS88" s="4"/>
+      <c r="AY88" s="4"/>
+      <c r="BD88" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE88" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF88" s="2">
+        <v>44363</v>
+      </c>
+      <c r="BH88" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>352172850661</v>
+      </c>
+      <c r="B89" s="2">
+        <v>44276</v>
+      </c>
+      <c r="C89" t="s">
+        <v>215</v>
+      </c>
+      <c r="D89" s="2">
+        <v>20145</v>
+      </c>
+      <c r="E89" s="2">
+        <v>44270</v>
+      </c>
+      <c r="F89" t="s">
+        <v>161</v>
+      </c>
+      <c r="L89" s="3"/>
+      <c r="P89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="AB89" s="4"/>
+      <c r="AE89" s="4"/>
+      <c r="AH89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI89" s="2">
+        <v>44276</v>
+      </c>
+      <c r="AJ89" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM89" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN89" s="2">
+        <v>44276</v>
+      </c>
+      <c r="AO89" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS89" s="4"/>
+      <c r="AY89" s="4"/>
+      <c r="BD89" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE89" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF89" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH89" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>352172834044</v>
+      </c>
+      <c r="B90" s="2">
+        <v>44276</v>
+      </c>
+      <c r="C90" t="s">
+        <v>217</v>
+      </c>
+      <c r="D90" s="2">
+        <v>23734</v>
+      </c>
+      <c r="E90" s="2">
+        <v>44272</v>
+      </c>
+      <c r="F90" t="s">
+        <v>178</v>
+      </c>
+      <c r="L90" s="3"/>
+      <c r="P90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="AB90" s="4"/>
+      <c r="AE90" s="4"/>
+      <c r="AH90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI90" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AJ90" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM90" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN90" s="2">
+        <v>44272</v>
+      </c>
+      <c r="AO90" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS90" s="4"/>
+      <c r="AY90" s="4"/>
+      <c r="BD90" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE90" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF90" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH90" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>352172943756</v>
+      </c>
+      <c r="B91" s="2">
+        <v>44277</v>
+      </c>
+      <c r="C91" t="s">
+        <v>218</v>
+      </c>
+      <c r="D91" s="2">
+        <v>34752</v>
+      </c>
+      <c r="E91" s="2">
+        <v>44257</v>
+      </c>
+      <c r="F91" t="s">
+        <v>219</v>
+      </c>
+      <c r="L91" s="3"/>
+      <c r="P91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="AB91" s="4"/>
+      <c r="AE91" s="4"/>
+      <c r="AH91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI91" s="2">
+        <v>44264</v>
+      </c>
+      <c r="AJ91" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN91" s="2">
+        <v>44264</v>
+      </c>
+      <c r="AO91" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS91" s="4"/>
+      <c r="AY91" s="4"/>
+      <c r="BD91" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE91" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF91" s="2">
+        <v>44322</v>
+      </c>
+      <c r="BH91" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>352172859628</v>
+      </c>
+      <c r="B92" s="2">
+        <v>44276</v>
+      </c>
+      <c r="C92" t="s">
+        <v>220</v>
+      </c>
+      <c r="D92" s="2">
+        <v>35998</v>
+      </c>
+      <c r="E92" s="2">
+        <v>44265</v>
+      </c>
+      <c r="F92" t="s">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+      <c r="P92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="AB92" s="4"/>
+      <c r="AE92" s="4"/>
+      <c r="AH92" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI92" s="2">
+        <v>44266</v>
+      </c>
+      <c r="AJ92" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL92" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM92" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN92" s="2">
+        <v>44266</v>
+      </c>
+      <c r="AO92" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS92" s="4"/>
+      <c r="AY92" s="4"/>
+      <c r="BD92" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE92" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF92" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH92" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>352172857477</v>
+      </c>
+      <c r="B93" s="2">
+        <v>44276</v>
+      </c>
+      <c r="C93" t="s">
+        <v>221</v>
+      </c>
+      <c r="D93" s="2">
+        <v>39901</v>
+      </c>
+      <c r="E93" s="2">
+        <v>44265</v>
+      </c>
+      <c r="F93" t="s">
+        <v>192</v>
+      </c>
+      <c r="L93" s="3"/>
+      <c r="P93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="AB93" s="4"/>
+      <c r="AE93" s="4"/>
+      <c r="AH93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI93" s="2">
+        <v>44267</v>
+      </c>
+      <c r="AJ93" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM93" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN93" s="2">
+        <v>44267</v>
+      </c>
+      <c r="AO93" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS93" s="4"/>
+      <c r="AY93" s="4"/>
+      <c r="BD93" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE93" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF93" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH93" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>352172860282</v>
+      </c>
+      <c r="B94" s="2">
+        <v>44276</v>
+      </c>
+      <c r="C94" t="s">
+        <v>222</v>
+      </c>
+      <c r="D94" s="2">
+        <v>38971</v>
+      </c>
+      <c r="E94" s="2">
+        <v>44264</v>
+      </c>
+      <c r="F94" t="s">
+        <v>72</v>
+      </c>
+      <c r="L94" s="3"/>
+      <c r="P94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="AB94" s="4"/>
+      <c r="AE94" s="4"/>
+      <c r="AH94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI94" s="2">
+        <v>44266</v>
+      </c>
+      <c r="AJ94" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM94" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN94" s="2">
+        <v>44266</v>
+      </c>
+      <c r="AO94" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS94" s="4"/>
+      <c r="AY94" s="4"/>
+      <c r="BD94" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE94" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF94" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH94" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>352172843039</v>
+      </c>
+      <c r="B95" s="2">
+        <v>44276</v>
+      </c>
+      <c r="C95" t="s">
+        <v>223</v>
+      </c>
+      <c r="D95" s="2">
+        <v>32542</v>
+      </c>
+      <c r="E95" s="2">
+        <v>44274</v>
+      </c>
+      <c r="F95" t="s">
+        <v>72</v>
+      </c>
+      <c r="L95" s="3"/>
+      <c r="P95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="AB95" s="4"/>
+      <c r="AE95" s="4"/>
+      <c r="AH95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI95" s="2">
+        <v>44274</v>
+      </c>
+      <c r="AJ95" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN95" s="2">
+        <v>44274</v>
+      </c>
+      <c r="AO95" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS95" s="4"/>
+      <c r="AY95" s="4"/>
+      <c r="BD95" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE95" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF95" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH95" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>352172861920</v>
+      </c>
+      <c r="B96" s="2">
+        <v>44276</v>
+      </c>
+      <c r="C96" t="s">
+        <v>224</v>
+      </c>
+      <c r="D96" s="2">
+        <v>23788</v>
+      </c>
+      <c r="E96" s="2">
+        <v>44263</v>
+      </c>
+      <c r="F96" t="s">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+      <c r="P96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="AB96" s="4"/>
+      <c r="AE96" s="4"/>
+      <c r="AH96" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI96" s="2">
+        <v>44266</v>
+      </c>
+      <c r="AJ96" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL96" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM96" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN96" s="2">
+        <v>44266</v>
+      </c>
+      <c r="AO96" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS96" s="4"/>
+      <c r="AY96" s="4"/>
+      <c r="BD96" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE96" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF96" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH96" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>352172846970</v>
+      </c>
+      <c r="B97" s="2">
+        <v>44276</v>
+      </c>
+      <c r="C97" t="s">
+        <v>225</v>
+      </c>
+      <c r="D97" s="2">
+        <v>32490</v>
+      </c>
+      <c r="E97" s="2">
+        <v>44264</v>
+      </c>
+      <c r="F97" t="s">
+        <v>180</v>
+      </c>
+      <c r="L97" s="3"/>
+      <c r="P97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="AB97" s="4"/>
+      <c r="AE97" s="4"/>
+      <c r="AH97" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI97" s="2">
+        <v>44267</v>
+      </c>
+      <c r="AJ97" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL97" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM97" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN97" s="2">
+        <v>44267</v>
+      </c>
+      <c r="AO97" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS97" s="4"/>
+      <c r="AY97" s="4"/>
+      <c r="BD97" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE97" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF97" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH97" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>352173329473</v>
+      </c>
+      <c r="B98" s="2">
+        <v>44278</v>
+      </c>
+      <c r="C98" t="s">
+        <v>226</v>
+      </c>
+      <c r="D98" s="2">
+        <v>26236</v>
+      </c>
+      <c r="E98" s="2">
+        <v>44241</v>
+      </c>
+      <c r="F98" t="s">
+        <v>227</v>
+      </c>
+      <c r="L98" s="3"/>
+      <c r="P98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="AB98" s="4"/>
+      <c r="AE98" s="4"/>
+      <c r="AH98" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI98" s="2">
+        <v>44262</v>
+      </c>
+      <c r="AJ98" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL98" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM98" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN98" s="2">
+        <v>44262</v>
+      </c>
+      <c r="AO98" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS98" s="4"/>
+      <c r="AY98" s="4"/>
+      <c r="BD98" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE98" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF98" s="2">
+        <v>44329</v>
+      </c>
+      <c r="BH98" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>352172868782</v>
+      </c>
+      <c r="B99" s="2">
+        <v>44270</v>
+      </c>
+      <c r="C99" t="s">
+        <v>228</v>
+      </c>
+      <c r="D99" s="2">
+        <v>16020</v>
+      </c>
+      <c r="E99" s="2">
+        <v>44267</v>
+      </c>
+      <c r="F99" t="s">
+        <v>229</v>
+      </c>
+      <c r="L99" s="3"/>
+      <c r="P99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="AB99" s="4"/>
+      <c r="AE99" s="4"/>
+      <c r="AH99" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI99" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AJ99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL99" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM99" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN99" s="2">
+        <v>44270</v>
+      </c>
+      <c r="AO99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS99" s="4"/>
+      <c r="AY99" s="4"/>
+      <c r="BD99" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE99" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF99" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH99" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>352172814683</v>
+      </c>
+      <c r="B100" s="2">
+        <v>44275</v>
+      </c>
+      <c r="C100" t="s">
+        <v>230</v>
+      </c>
+      <c r="D100" s="2">
+        <v>38130</v>
+      </c>
+      <c r="E100" s="2">
+        <v>44267</v>
+      </c>
+      <c r="F100" t="s">
+        <v>216</v>
+      </c>
+      <c r="L100" s="3"/>
+      <c r="P100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="Y100" s="4"/>
+      <c r="AB100" s="4"/>
+      <c r="AE100" s="4"/>
+      <c r="AH100" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI100" s="2">
+        <v>44268</v>
+      </c>
+      <c r="AJ100" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL100" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM100" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN100" s="2">
+        <v>44268</v>
+      </c>
+      <c r="AO100" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS100" s="4"/>
+      <c r="AY100" s="4"/>
+      <c r="BD100" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE100" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF100" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH100" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>352173361612</v>
+      </c>
+      <c r="B101" s="2">
+        <v>44278</v>
+      </c>
+      <c r="C101" t="s">
+        <v>231</v>
+      </c>
+      <c r="D101" s="2">
+        <v>30606</v>
+      </c>
+      <c r="E101" s="2">
+        <v>44276</v>
+      </c>
+      <c r="F101" t="s">
+        <v>232</v>
+      </c>
+      <c r="L101" s="3"/>
+      <c r="P101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="AB101" s="4"/>
+      <c r="AE101" s="4"/>
+      <c r="AH101" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI101" s="2">
+        <v>44278</v>
+      </c>
+      <c r="AJ101" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL101" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM101" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN101" s="2">
+        <v>44278</v>
+      </c>
+      <c r="AO101" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS101" s="4"/>
+      <c r="AY101" s="4"/>
+      <c r="BD101" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE101" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF101" s="2">
+        <v>44313</v>
+      </c>
+      <c r="BH101" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>352172828656</v>
+      </c>
+      <c r="B102" s="2">
+        <v>44276</v>
+      </c>
+      <c r="C102" t="s">
+        <v>233</v>
+      </c>
+      <c r="D102" s="2">
+        <v>34504</v>
+      </c>
+      <c r="E102" s="2">
+        <v>44272</v>
+      </c>
+      <c r="F102" t="s">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3"/>
+      <c r="P102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="AB102" s="4"/>
+      <c r="AE102" s="4"/>
+      <c r="AH102" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI102" s="2">
+        <v>44275</v>
+      </c>
+      <c r="AJ102" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL102" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM102" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN102" s="2">
+        <v>44275</v>
+      </c>
+      <c r="AO102" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS102" s="4"/>
+      <c r="AY102" s="4"/>
+      <c r="BD102" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE102" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF102" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH102" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>352172828623</v>
+      </c>
+      <c r="B103" s="2">
+        <v>44276</v>
+      </c>
+      <c r="C103" t="s">
+        <v>234</v>
+      </c>
+      <c r="D103" s="2">
+        <v>35870</v>
+      </c>
+      <c r="E103" s="2">
+        <v>44275</v>
+      </c>
+      <c r="F103" t="s">
+        <v>72</v>
+      </c>
+      <c r="L103" s="3"/>
+      <c r="P103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="Y103" s="4"/>
+      <c r="AB103" s="4"/>
+      <c r="AE103" s="4"/>
+      <c r="AH103" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI103" s="2">
+        <v>44275</v>
+      </c>
+      <c r="AJ103" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL103" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM103" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN103" s="2">
+        <v>44275</v>
+      </c>
+      <c r="AO103" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS103" s="4"/>
+      <c r="AY103" s="4"/>
+      <c r="BD103" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE103" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF103" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH103" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>352172847334</v>
+      </c>
+      <c r="B104" s="2">
+        <v>44276</v>
+      </c>
+      <c r="C104" t="s">
+        <v>235</v>
+      </c>
+      <c r="D104" s="2">
+        <v>31299</v>
+      </c>
+      <c r="E104" s="2">
+        <v>44264</v>
+      </c>
+      <c r="F104" t="s">
+        <v>180</v>
+      </c>
+      <c r="L104" s="3"/>
+      <c r="P104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="Y104" s="4"/>
+      <c r="AB104" s="4"/>
+      <c r="AE104" s="4"/>
+      <c r="AH104" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI104" s="2">
+        <v>44267</v>
+      </c>
+      <c r="AJ104" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL104" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM104" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN104" s="2">
+        <v>44267</v>
+      </c>
+      <c r="AO104" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS104" s="4"/>
+      <c r="AY104" s="4"/>
+      <c r="BD104" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE104" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF104" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH104" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>352173127270</v>
+      </c>
+      <c r="B105" s="2">
+        <v>44277</v>
+      </c>
+      <c r="C105" t="s">
+        <v>236</v>
+      </c>
+      <c r="D105" s="2">
+        <v>25571</v>
+      </c>
+      <c r="E105" s="2">
+        <v>44266</v>
+      </c>
+      <c r="F105" t="s">
+        <v>237</v>
+      </c>
+      <c r="L105" s="3"/>
+      <c r="P105" s="4"/>
+      <c r="S105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="Y105" s="4"/>
+      <c r="AB105" s="4"/>
+      <c r="AE105" s="4"/>
+      <c r="AH105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI105" s="2">
+        <v>44267</v>
+      </c>
+      <c r="AJ105" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL105" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM105" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN105" s="2">
+        <v>44267</v>
+      </c>
+      <c r="AO105" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS105" s="4"/>
+      <c r="AY105" s="4"/>
+      <c r="BD105" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE105" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF105" s="2">
+        <v>44329</v>
+      </c>
+      <c r="BH105" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>352172836508</v>
+      </c>
+      <c r="B106" s="2">
+        <v>44276</v>
+      </c>
+      <c r="C106" t="s">
+        <v>238</v>
+      </c>
+      <c r="D106" s="2">
+        <v>18544</v>
+      </c>
+      <c r="E106" s="2">
+        <v>44272</v>
+      </c>
+      <c r="F106" t="s">
+        <v>239</v>
+      </c>
+      <c r="L106" s="3"/>
+      <c r="P106" s="4"/>
+      <c r="S106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="Y106" s="4"/>
+      <c r="AB106" s="4"/>
+      <c r="AE106" s="4"/>
+      <c r="AH106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI106" s="2">
+        <v>44274</v>
+      </c>
+      <c r="AJ106" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM106" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN106" s="2">
+        <v>44274</v>
+      </c>
+      <c r="AO106" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS106" s="4"/>
+      <c r="AY106" s="4"/>
+      <c r="BD106" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE106" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF106" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH106" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>352172861117</v>
+      </c>
+      <c r="B107" s="2">
+        <v>44276</v>
+      </c>
+      <c r="C107" t="s">
+        <v>240</v>
+      </c>
+      <c r="D107" s="2">
+        <v>28464</v>
+      </c>
+      <c r="E107" s="2">
+        <v>44263</v>
+      </c>
+      <c r="F107" t="s">
+        <v>0</v>
+      </c>
+      <c r="L107" s="3"/>
+      <c r="P107" s="4"/>
+      <c r="S107" s="4"/>
+      <c r="V107" s="4"/>
+      <c r="Y107" s="4"/>
+      <c r="AB107" s="4"/>
+      <c r="AE107" s="4"/>
+      <c r="AH107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI107" s="2">
+        <v>44266</v>
+      </c>
+      <c r="AJ107" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM107" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN107" s="2">
+        <v>44266</v>
+      </c>
+      <c r="AO107" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS107" s="4"/>
+      <c r="AY107" s="4"/>
+      <c r="BD107" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE107" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF107" s="2">
+        <v>44366</v>
+      </c>
+      <c r="BH107" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>352173181035</v>
+      </c>
+      <c r="B108" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C108" t="s">
+        <v>241</v>
+      </c>
+      <c r="D108" s="2">
+        <v>34340</v>
+      </c>
+      <c r="E108" s="2">
+        <v>44269</v>
+      </c>
+      <c r="F108" t="s">
+        <v>95</v>
+      </c>
+      <c r="L108" s="3"/>
+      <c r="P108" s="4"/>
+      <c r="S108" s="4"/>
+      <c r="V108" s="4"/>
+      <c r="Y108" s="4"/>
+      <c r="AB108" s="4"/>
+      <c r="AE108" s="4"/>
+      <c r="AH108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI108" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AJ108" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL108" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM108" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN108" s="2">
+        <v>44273</v>
+      </c>
+      <c r="AO108" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS108" s="4"/>
+      <c r="AY108" s="4"/>
+      <c r="BD108" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE108" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF108" s="2">
+        <v>44314</v>
+      </c>
+      <c r="BH108" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI108" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:BI85" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:BI108"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6815,7 +8363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
